--- a/Japanese_Foundation.xlsx
+++ b/Japanese_Foundation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="178">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -59,6 +59,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">あ</t>
     </r>
@@ -78,6 +79,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">い</t>
     </r>
@@ -97,6 +99,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">う</t>
     </r>
@@ -112,10 +115,163 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">え</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">お</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Open</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 2</t>
+    <t xml:space="preserve">Hiragana 4</t>
   </si>
   <si>
     <r>
@@ -134,46 +290,49 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">え</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">お</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">か</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">し</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +346,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 3</t>
+    <t xml:space="preserve">Hiragana 5</t>
   </si>
   <si>
     <r>
@@ -206,46 +365,49 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">き</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">け</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">せ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">そ</t>
     </r>
     <r>
       <rPr>
@@ -259,7 +421,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 4</t>
+    <t xml:space="preserve">Hiragana 6</t>
   </si>
   <si>
     <r>
@@ -278,46 +440,49 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">さ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">し</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">つ</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +496,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 5</t>
+    <t xml:space="preserve">Hiragana 7</t>
   </si>
   <si>
     <r>
@@ -350,46 +515,49 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">せ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">そ</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">な</t>
     </r>
     <r>
       <rPr>
@@ -403,7 +571,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 6</t>
+    <t xml:space="preserve">Hiragana 8</t>
   </si>
   <si>
     <r>
@@ -422,46 +590,49 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">た</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ち</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">つ</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ぬ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ね</t>
     </r>
     <r>
       <rPr>
@@ -475,7 +646,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 7</t>
+    <t xml:space="preserve">Hiragana 9</t>
   </si>
   <si>
     <r>
@@ -494,46 +665,49 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">て</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">な</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ひ</t>
     </r>
     <r>
       <rPr>
@@ -547,7 +721,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 8</t>
+    <t xml:space="preserve">Hiragana 10</t>
   </si>
   <si>
     <r>
@@ -566,6 +740,654 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ふ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">へ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ほ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">む</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">め</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ゆ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">よ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">り</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">わ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana Practice Day 17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review Hiragana learned so far. Build 3 short sentences using verbs like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">食べる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">見る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Focus on writing correctly and reading aloud.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana Practice Day 18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review all Hiragana so far. Build 4 short sentences including adjectives (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">かわいい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大きい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">). Practice reading aloud.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana Practice Day 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review Hiragana. Build 3–4 short sentences using particles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">に</t>
     </r>
@@ -577,697 +1399,151 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ぬ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ね</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ひ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ふ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">へ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ほ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ま</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">み</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">む</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">め</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">も</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">や</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 13</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ゆ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">よ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 14</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">り</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">れ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ろ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">わ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 16</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana Practice Day 17</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Review Hiragana learned so far. Build 3 short sentences using verbs like </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">食べる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">行く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">見る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana Practice Day 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana Practice Day 19</t>
+      <t xml:space="preserve">. Practice writing neatly and reading aloud.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Hiragana Practice Day 20</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Build 3 sentences combining verbs + adjectives. Try reading without looking at romaji.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 21</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Practice dictation: listen to a word or sentence and write it in Hiragana.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 22</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review Hiragana. Build 3–5 sentences using verbs in different forms (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">食べます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">食べない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">).</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 23</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Read 5 simple Japanese words or sentences aloud. Focus on pronunciation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 24</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review Hiragana. Build 3 sentences using common nouns + verbs (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">学校に行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">).</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 25</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Write 5 sentences from memory, without romaji, using verbs + particles + adjectives.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 26</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Practice reading aloud simple dialogues. Focus on rhythm and intonation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 27</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Build 3–5 short stories (2–3 sentences each) using Hiragana only.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 28</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Do a mini quiz: write Hiragana for spoken words, and vice versa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 29</t>
   </si>
   <si>
+    <t xml:space="preserve">Review Hiragana. Write 5 sentences using new combinations of characters to reinforce memory.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiragana Practice Day 30</t>
   </si>
   <si>
+    <t xml:space="preserve">Final Hiragana review. Write, read aloud, and dictate 10 sentences. Focus on accuracy and speed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Month 2: Katakana + Questions</t>
   </si>
   <si>
@@ -1290,6 +1566,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ア</t>
     </r>
@@ -1309,6 +1586,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">イ</t>
     </r>
@@ -1328,6 +1606,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ウ</t>
     </r>
@@ -1347,6 +1626,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -1366,6 +1646,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -1400,6 +1681,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">エ</t>
     </r>
@@ -1419,6 +1701,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">オ</t>
     </r>
@@ -1438,6 +1721,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カ</t>
     </r>
@@ -1457,6 +1741,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -1476,6 +1761,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -1510,6 +1796,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">キ</t>
     </r>
@@ -1529,6 +1816,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ク</t>
     </r>
@@ -1548,6 +1836,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ケ</t>
     </r>
@@ -1567,6 +1856,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -1586,6 +1876,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -1620,6 +1911,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">コ</t>
     </r>
@@ -1639,6 +1931,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">サ</t>
     </r>
@@ -1658,6 +1951,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">シ</t>
     </r>
@@ -1677,6 +1971,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -1696,6 +1991,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -1730,6 +2026,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ス</t>
     </r>
@@ -1749,6 +2046,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セ</t>
     </r>
@@ -1768,6 +2066,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ソ</t>
     </r>
@@ -1787,6 +2086,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -1806,6 +2106,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -1840,6 +2141,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">タ</t>
     </r>
@@ -1859,6 +2161,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">チ</t>
     </r>
@@ -1878,6 +2181,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ツ</t>
     </r>
@@ -1897,6 +2201,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -1916,6 +2221,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -1950,6 +2256,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テ</t>
     </r>
@@ -1969,6 +2276,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ト</t>
     </r>
@@ -1988,6 +2296,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ナ</t>
     </r>
@@ -2007,6 +2316,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2026,6 +2336,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2060,6 +2371,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ニ</t>
     </r>
@@ -2079,6 +2391,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ヌ</t>
     </r>
@@ -2098,6 +2411,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ネ</t>
     </r>
@@ -2117,6 +2431,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2136,6 +2451,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2170,6 +2486,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ノ</t>
     </r>
@@ -2189,6 +2506,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ハ</t>
     </r>
@@ -2208,6 +2526,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ヒ</t>
     </r>
@@ -2227,6 +2546,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2246,6 +2566,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2280,6 +2601,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">フ</t>
     </r>
@@ -2299,6 +2621,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ヘ</t>
     </r>
@@ -2318,6 +2641,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ホ</t>
     </r>
@@ -2337,6 +2661,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2356,6 +2681,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2390,6 +2716,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">マ</t>
     </r>
@@ -2409,6 +2736,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ミ</t>
     </r>
@@ -2428,6 +2756,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ム</t>
     </r>
@@ -2447,6 +2776,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2466,6 +2796,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2500,6 +2831,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">メ</t>
     </r>
@@ -2519,6 +2851,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">モ</t>
     </r>
@@ -2538,6 +2871,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ヤ</t>
     </r>
@@ -2557,6 +2891,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2576,6 +2911,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2610,6 +2946,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ユ</t>
     </r>
@@ -2629,6 +2966,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ヨ</t>
     </r>
@@ -2648,6 +2986,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ラ</t>
     </r>
@@ -2667,6 +3006,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2686,6 +3026,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2720,6 +3061,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">リ</t>
     </r>
@@ -2739,6 +3081,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ル</t>
     </r>
@@ -2758,6 +3101,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">レ</t>
     </r>
@@ -2777,6 +3121,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2796,6 +3141,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2830,6 +3176,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ロ</t>
     </r>
@@ -2849,6 +3196,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ワ</t>
     </r>
@@ -2868,6 +3216,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ヲ</t>
     </r>
@@ -2887,6 +3236,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2906,6 +3256,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -2940,6 +3291,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ン</t>
     </r>
@@ -2959,6 +3311,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">カメラ</t>
     </r>
@@ -2978,6 +3331,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テレビ</t>
     </r>
@@ -3012,6 +3366,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">なん</t>
     </r>
@@ -3031,6 +3386,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">どこ</t>
     </r>
@@ -3050,6 +3406,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">だれ</t>
     </r>
@@ -3069,6 +3426,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">いつ</t>
     </r>
@@ -3088,6 +3446,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">どう</t>
     </r>
@@ -3167,6 +3526,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日 </t>
     </r>
@@ -3186,6 +3546,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月 </t>
     </r>
@@ -3220,6 +3581,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">火 </t>
     </r>
@@ -3239,6 +3601,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">水 </t>
     </r>
@@ -3273,6 +3636,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">木 </t>
     </r>
@@ -3292,6 +3656,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">金 </t>
     </r>
@@ -3326,6 +3691,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">土 </t>
     </r>
@@ -3345,6 +3711,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">山 </t>
     </r>
@@ -3379,6 +3746,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">川 </t>
     </r>
@@ -3398,6 +3766,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">田 </t>
     </r>
@@ -3432,6 +3801,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人 </t>
     </r>
@@ -3451,6 +3821,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">口 </t>
     </r>
@@ -3485,6 +3856,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">目 </t>
     </r>
@@ -3504,6 +3876,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">耳 </t>
     </r>
@@ -3538,6 +3911,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手 </t>
     </r>
@@ -3557,6 +3931,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">足 </t>
     </r>
@@ -3591,6 +3966,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">力 </t>
     </r>
@@ -3610,6 +3986,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">女 </t>
     </r>
@@ -3644,6 +4021,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">男 </t>
     </r>
@@ -3663,6 +4041,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">子 </t>
     </r>
@@ -3697,6 +4076,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">学 </t>
     </r>
@@ -3716,6 +4096,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">校 </t>
     </r>
@@ -3750,6 +4131,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">先 </t>
     </r>
@@ -3769,6 +4151,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">生 </t>
     </r>
@@ -3803,6 +4186,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本 </t>
     </r>
@@ -3822,6 +4206,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大 </t>
     </r>
@@ -3856,6 +4241,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小 </t>
     </r>
@@ -3875,6 +4261,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中 </t>
     </r>
@@ -3909,6 +4296,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上 </t>
     </r>
@@ -3928,6 +4316,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">下 </t>
     </r>
@@ -3962,6 +4351,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">左 </t>
     </r>
@@ -3981,6 +4371,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">右 </t>
     </r>
@@ -4015,6 +4406,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円 </t>
     </r>
@@ -4034,6 +4426,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">百 </t>
     </r>
@@ -4068,6 +4461,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">千 </t>
     </r>
@@ -4087,6 +4481,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万 </t>
     </r>
@@ -4121,6 +4516,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">時 </t>
     </r>
@@ -4140,6 +4536,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分 </t>
     </r>
@@ -4174,6 +4571,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年 </t>
     </r>
@@ -4193,6 +4591,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">今 </t>
     </r>
@@ -4227,6 +4626,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行 </t>
     </r>
@@ -4246,6 +4646,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">来 </t>
     </r>
@@ -4280,6 +4681,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">食 </t>
     </r>
@@ -4299,6 +4701,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">飲 </t>
     </r>
@@ -4333,6 +4736,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">見 </t>
     </r>
@@ -4352,6 +4756,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">聞 </t>
     </r>
@@ -4386,6 +4791,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">話 </t>
     </r>
@@ -4405,6 +4811,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">書 </t>
     </r>
@@ -4439,6 +4846,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">読 </t>
     </r>
@@ -4458,6 +4866,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">買 </t>
     </r>
@@ -4492,6 +4901,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">たい </t>
     </r>
@@ -4526,6 +4936,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ています </t>
     </r>
@@ -4560,6 +4971,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ませんか </t>
     </r>
@@ -4594,6 +5006,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">〜です </t>
     </r>
@@ -4628,6 +5041,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">〜ではありません </t>
     </r>
@@ -4641,9 +5055,6 @@
       </rPr>
       <t xml:space="preserve">(is not). Make 3 example sentences.</t>
     </r>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -4653,7 +5064,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4681,6 +5092,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="WenQuanYi Zen Hei Sharp"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -4772,17 +5190,17 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.72" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="28.34" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.91" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="79.61" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="1025" customWidth="true" hidden="false" style="0" width="8.67" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -4816,10 +5234,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -4836,7 +5254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -4850,10 +5268,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -4861,16 +5279,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -4878,16 +5296,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -4895,16 +5313,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -4912,16 +5330,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -4929,16 +5347,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -4946,16 +5364,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -4963,16 +5381,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -4980,16 +5398,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -4997,16 +5415,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -5014,16 +5432,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -5031,16 +5449,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -5048,16 +5466,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -5065,13 +5483,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,13 +5500,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,13 +5517,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,16 +5534,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -5133,16 +5551,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -5150,13 +5568,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,16 +5585,16 @@
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -5184,13 +5602,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,16 +5619,16 @@
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
@@ -5218,16 +5636,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
@@ -5235,16 +5653,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
@@ -5252,16 +5670,16 @@
         <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
@@ -5269,16 +5687,16 @@
         <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
@@ -5286,16 +5704,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
@@ -5303,13 +5721,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,16 +5735,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,16 +5752,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,16 +5769,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,16 +5786,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,16 +5803,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,16 +5820,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,16 +5837,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,16 +5854,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,16 +5871,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,16 +5888,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,16 +5905,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,16 +5922,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,16 +5939,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,16 +5956,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,16 +5973,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,16 +5990,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,16 +6007,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,16 +6024,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,16 +6041,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,16 +6058,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,16 +6075,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,16 +6092,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,16 +6109,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,16 +6126,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,16 +6143,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,16 +6160,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,16 +6177,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,16 +6194,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,16 +6211,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,16 +6228,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,16 +6245,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,16 +6262,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,16 +6279,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,16 +6296,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,16 +6313,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,16 +6330,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,16 +6347,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,16 +6364,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,16 +6381,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,16 +6398,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,16 +6415,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6014,16 +6432,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,16 +6449,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,16 +6466,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,16 +6483,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,16 +6500,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,16 +6517,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,16 +6534,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,16 +6551,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,16 +6568,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,16 +6585,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,16 +6602,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6201,16 +6619,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,16 +6636,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,16 +6653,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,16 +6670,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,16 +6687,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6286,16 +6704,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6303,16 +6721,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,16 +6738,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Japanese_Foundation.xlsx
+++ b/Japanese_Foundation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="179">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -268,321 +268,1126 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Hiragana 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">せ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">そ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ぬ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ね</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ひ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ふ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">へ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ほ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">む</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">め</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ゆ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">よ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">り</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">わ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana 16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Learn Hiragana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana Practice Day 17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review Hiragana learned so far. Build 3 short sentences using verbs like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">食べる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">見る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Focus on writing correctly and reading aloud.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Open</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiragana 4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">さ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">せ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">そ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">た</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ち</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">つ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">て</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">な</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
+    <t xml:space="preserve">Hiragana Practice Day 18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review all Hiragana so far. Build 4 short sentences including adjectives (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">かわいい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">大きい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">). Practice reading aloud.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiragana Practice Day 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Review Hiragana. Build 3–4 short sentences using particles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Zen Hei Sharp"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -602,803 +1407,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ぬ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ね</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ひ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ふ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">へ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ほ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ま</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">み</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">む</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">め</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">も</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">や</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 13</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ゆ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">よ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 14</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">り</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">れ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ろ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">わ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana 16</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Learn Hiragana: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Practice writing, reading, and 2 example words.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana Practice Day 17</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Review Hiragana learned so far. Build 3 short sentences using verbs like </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">食べる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">行く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">見る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Focus on writing correctly and reading aloud.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana Practice Day 18</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Review all Hiragana so far. Build 4 short sentences including adjectives (e.g., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">かわいい</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">大きい</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">). Practice reading aloud.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiragana Practice Day 19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Review Hiragana. Build 3–4 short sentences using particles </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Zen Hei Sharp"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">. Practice writing neatly and reading aloud.</t>
     </r>
   </si>
@@ -1434,6 +1442,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">食べます</t>
     </r>
@@ -1453,6 +1462,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">食べない</t>
     </r>
@@ -1493,6 +1503,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Zen Hei Sharp"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">学校に行く</t>
     </r>
@@ -5055,6 +5066,9 @@
       </rPr>
       <t xml:space="preserve">(is not). Make 3 example sentences.</t>
     </r>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -5064,7 +5078,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5101,12 +5115,6 @@
       <name val="WenQuanYi Zen Hei Sharp"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="WenQuanYi Zen Hei Sharp"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5191,16 +5199,16 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.72" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="28.34" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.9" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="84.48" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="1025" customWidth="true" hidden="false" style="0" width="8.67" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,13 +5287,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,13 +5304,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,13 +5321,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5330,13 +5338,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,13 +5355,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,13 +5372,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,13 +5389,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,13 +5406,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,13 +5423,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,13 +5440,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,13 +5457,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,13 +5474,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,13 +5491,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5500,13 +5508,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,7 +5531,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5548,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5565,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,7 +5582,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,7 +5599,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +5616,7 @@
         <v>53</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,7 +5633,7 @@
         <v>55</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5650,7 @@
         <v>57</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,7 +5667,7 @@
         <v>59</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,7 +5684,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,7 +5701,7 @@
         <v>63</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,7 +5718,7 @@
         <v>65</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +5735,7 @@
         <v>67</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +5752,7 @@
         <v>70</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,7 +5769,7 @@
         <v>72</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,7 +5786,7 @@
         <v>74</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +5803,7 @@
         <v>76</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,7 +5820,7 @@
         <v>78</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +5837,7 @@
         <v>80</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +5854,7 @@
         <v>82</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,7 +5871,7 @@
         <v>84</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,7 +5888,7 @@
         <v>86</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,7 +5905,7 @@
         <v>88</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,7 +5922,7 @@
         <v>90</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,7 +5939,7 @@
         <v>92</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,7 +5956,7 @@
         <v>94</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,7 +5973,7 @@
         <v>96</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,7 +5990,7 @@
         <v>98</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,7 +6007,7 @@
         <v>100</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6024,7 @@
         <v>102</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,7 +6041,7 @@
         <v>102</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6050,7 +6058,7 @@
         <v>102</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,7 +6075,7 @@
         <v>102</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6092,7 @@
         <v>102</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,7 +6109,7 @@
         <v>102</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,7 +6126,7 @@
         <v>102</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,7 +6143,7 @@
         <v>102</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,7 +6160,7 @@
         <v>102</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,7 +6177,7 @@
         <v>112</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,7 +6194,7 @@
         <v>112</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,7 +6211,7 @@
         <v>112</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,7 +6228,7 @@
         <v>112</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,7 +6245,7 @@
         <v>112</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,7 +6262,7 @@
         <v>119</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6279,7 @@
         <v>121</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,7 +6296,7 @@
         <v>123</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,7 +6313,7 @@
         <v>125</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6322,7 +6330,7 @@
         <v>127</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,7 +6347,7 @@
         <v>129</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6356,7 +6364,7 @@
         <v>131</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,7 +6381,7 @@
         <v>133</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6398,7 @@
         <v>135</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6407,7 +6415,7 @@
         <v>137</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,7 +6432,7 @@
         <v>139</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,7 +6449,7 @@
         <v>141</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6466,7 @@
         <v>143</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,7 +6483,7 @@
         <v>145</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,7 +6500,7 @@
         <v>147</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6509,7 +6517,7 @@
         <v>149</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,7 +6534,7 @@
         <v>151</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,7 +6551,7 @@
         <v>153</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,7 +6568,7 @@
         <v>155</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,7 +6585,7 @@
         <v>157</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,7 +6602,7 @@
         <v>159</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,7 +6619,7 @@
         <v>161</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,7 +6636,7 @@
         <v>163</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,7 +6653,7 @@
         <v>165</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6662,7 +6670,7 @@
         <v>167</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +6687,7 @@
         <v>169</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,7 +6704,7 @@
         <v>171</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,7 +6721,7 @@
         <v>173</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,7 +6738,7 @@
         <v>175</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,7 +6755,7 @@
         <v>177</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Japanese_Foundation.xlsx
+++ b/Japanese_Foundation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="177">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -115,7 +115,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Done</t>
+    <t xml:space="preserve">Open</t>
   </si>
   <si>
     <t xml:space="preserve">Hiragana 2</t>
@@ -1278,9 +1278,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiragana Practice Day 18</t>
   </si>
   <si>
@@ -5066,9 +5063,6 @@
       </rPr>
       <t xml:space="preserve">(is not). Make 3 example sentences.</t>
     </r>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -5199,16 +5193,16 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E17"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.72" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="28.34" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.9" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="84.48" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="1025" customWidth="true" hidden="false" style="0" width="8.67" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5228,7 +5222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -5245,7 +5239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -5262,7 +5256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -5279,7 +5273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -5296,7 +5290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -5313,7 +5307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -5330,7 +5324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -5347,7 +5341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -5364,7 +5358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -5381,7 +5375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -5398,7 +5392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -5415,7 +5409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -5432,7 +5426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -5449,7 +5443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -5466,7 +5460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -5483,7 +5477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -5514,7 +5508,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,13 +5519,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,13 +5536,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,13 +5553,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,13 +5570,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,13 +5587,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,13 +5604,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,13 +5621,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,13 +5638,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,13 +5655,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,13 +5672,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,13 +5689,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,13 +5706,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5729,13 +5723,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,16 +5737,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,16 +5754,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,16 +5771,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E34" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,16 +5788,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="E35" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,16 +5805,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="E36" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,16 +5822,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="E37" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,16 +5839,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="E38" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,16 +5856,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="E39" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,16 +5873,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E40" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,16 +5890,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="E41" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,16 +5907,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E42" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5930,16 +5924,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="E43" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5947,16 +5941,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="E44" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,16 +5958,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="E45" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,16 +5975,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E46" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,16 +5992,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="E47" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,16 +6009,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="E48" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,16 +6026,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,16 +6043,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,16 +6060,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,16 +6077,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,16 +6094,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,16 +6111,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,16 +6128,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6151,16 +6145,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,16 +6162,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E57" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,16 +6179,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,16 +6196,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,16 +6213,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,16 +6230,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,16 +6247,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="E62" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,16 +6264,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="E63" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6287,16 +6281,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="E64" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,16 +6298,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="E65" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,16 +6315,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="E66" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6338,16 +6332,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="E67" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,16 +6349,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="E68" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6372,16 +6366,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="E69" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,16 +6383,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="E70" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6406,16 +6400,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="E71" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6423,16 +6417,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="E72" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6440,16 +6434,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="E73" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,16 +6451,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="E74" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6474,16 +6468,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="E75" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,16 +6485,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="E76" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,16 +6502,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="E77" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,16 +6519,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E78" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6542,16 +6536,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C79" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="E79" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,16 +6553,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="E80" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,16 +6570,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="E81" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,16 +6587,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="E82" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6610,16 +6604,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="E83" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,16 +6621,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="E84" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,16 +6638,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>165</v>
-      </c>
       <c r="E85" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,16 +6655,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="E86" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,16 +6672,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="E87" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,16 +6689,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>171</v>
-      </c>
       <c r="E88" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,16 +6706,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="E89" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,16 +6723,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="E90" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,16 +6740,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>177</v>
-      </c>
       <c r="E91" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Japanese_Foundation.xlsx
+++ b/Japanese_Foundation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="178">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -5063,6 +5063,9 @@
       </rPr>
       <t xml:space="preserve">(is not). Make 3 example sentences.</t>
     </r>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -5198,11 +5201,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.72" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="28.34" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.9" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="84.48" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="1025" customWidth="true" hidden="false" style="0" width="8.67" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Japanese_Foundation.xlsx
+++ b/Japanese_Foundation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="178">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -5256,7 +5256,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
